--- a/4/ЛАБА 4.xlsx
+++ b/4/ЛАБА 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Симпсон (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
   <si>
     <t>Степень полинома</t>
   </si>
@@ -138,10 +138,7 @@
     <t>Метод трапеций</t>
   </si>
   <si>
-    <t>x^​7+​x^​6, [-1.5;1.5]</t>
-  </si>
-  <si>
-    <t>cos(x)*x, [5;20]</t>
+    <t>x^​7+​x^​6, [2;2]</t>
   </si>
 </sst>
 </file>
@@ -331,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
@@ -474,6 +471,12 @@
     <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,13 +504,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +548,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,7 +570,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -581,7 +590,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -610,7 +619,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,7 +641,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -652,7 +661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -681,7 +690,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +712,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -723,7 +732,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -752,7 +761,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -774,7 +783,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -794,7 +803,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -823,7 +832,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +854,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -865,7 +874,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1036,6 +1045,1541 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2705100" y="1895475"/>
+          <a:ext cx="514350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186418</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>220435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>643618</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>401410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4701268" y="2001610"/>
+          <a:ext cx="457200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6762750" y="2009775"/>
+          <a:ext cx="133350" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="1990725"/>
+          <a:ext cx="476250" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3733800" y="1838325"/>
+          <a:ext cx="523875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11449050" y="1895475"/>
+          <a:ext cx="514350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>210910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13168993" y="1992085"/>
+          <a:ext cx="457200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15268575" y="2009775"/>
+          <a:ext cx="133350" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5581650" y="1895475"/>
+          <a:ext cx="523875" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14125575" y="1895475"/>
+          <a:ext cx="523875" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15963900" y="1981200"/>
+          <a:ext cx="476250" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12353925" y="1828800"/>
+          <a:ext cx="523875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11449050" y="6991350"/>
+          <a:ext cx="514350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253093</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>220435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>710293</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>401410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13321393" y="7097485"/>
+          <a:ext cx="457200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15268575" y="7105650"/>
+          <a:ext cx="133350" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14173200" y="7029450"/>
+          <a:ext cx="523875" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15963900" y="7077075"/>
+          <a:ext cx="476250" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12353925" y="6924675"/>
+          <a:ext cx="523875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6181725" y="2028825"/>
+          <a:ext cx="514350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>776968</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>268060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7244443" y="2106385"/>
+          <a:ext cx="457200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9572625" y="2114550"/>
+          <a:ext cx="133350" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10715625" y="2114550"/>
+          <a:ext cx="476250" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8277225" y="2085975"/>
+          <a:ext cx="523875" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
@@ -1135,13 +2679,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
@@ -1177,7 +2721,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6762750" y="2009775"/>
+          <a:off x="7181850" y="2438400"/>
           <a:ext cx="133350" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1786,13 +3330,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1851,13 +3395,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>253093</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>220435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>710293</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>401410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1916,13 +3460,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1981,13 +3525,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2046,13 +3590,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2111,13 +3655,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>581025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2162,1541 +3706,6 @@
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6181725" y="2028825"/>
-          <a:ext cx="514350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>319768</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>776968</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>268060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7244443" y="2106385"/>
-          <a:ext cx="457200" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9572625" y="2114550"/>
-          <a:ext cx="133350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10715625" y="2114550"/>
-          <a:ext cx="476250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8277225" y="2085975"/>
-          <a:ext cx="523875" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2705100" y="1895475"/>
-          <a:ext cx="514350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>186418</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>220435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>643618</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>401410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4701268" y="2001610"/>
-          <a:ext cx="457200" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7181850" y="2438400"/>
-          <a:ext cx="133350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7505700" y="1990725"/>
-          <a:ext cx="476250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>590550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3733800" y="1838325"/>
-          <a:ext cx="523875" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11449050" y="1895475"/>
-          <a:ext cx="514350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>210910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13168993" y="1992085"/>
-          <a:ext cx="457200" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15268575" y="2009775"/>
-          <a:ext cx="133350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5581650" y="1895475"/>
-          <a:ext cx="523875" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14125575" y="1895475"/>
-          <a:ext cx="523875" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15963900" y="1981200"/>
-          <a:ext cx="476250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12353925" y="1828800"/>
-          <a:ext cx="523875" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11449050" y="6991350"/>
-          <a:ext cx="514350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>253093</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>220435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>710293</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>401410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13321393" y="7097485"/>
-          <a:ext cx="457200" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15268575" y="7105650"/>
-          <a:ext cx="133350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14173200" y="7029450"/>
-          <a:ext cx="523875" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15963900" y="7077075"/>
-          <a:ext cx="476250" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12353925" y="6924675"/>
-          <a:ext cx="523875" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4034,13 +4043,13 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
@@ -4051,46 +4060,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="114">
       <c r="A4" s="1" t="s">
@@ -4170,10 +4179,10 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="50">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="9">
@@ -4195,8 +4204,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8">
         <v>2</v>
@@ -4226,10 +4235,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="50">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="9">
@@ -4251,8 +4260,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8">
         <v>2</v>
@@ -4282,10 +4291,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="50">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="9">
@@ -4307,8 +4316,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8">
         <v>2</v>
@@ -4361,8 +4370,8 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4387,100 +4396,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="K1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="K2" s="51" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="K3" s="56" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="K3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="57">
+      <c r="A4" s="59">
         <v>36.571428571428598</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="K4" s="57">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="K4" s="59">
         <v>20.43352845067</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
     </row>
     <row r="5" spans="1:19" ht="114">
       <c r="A5" s="1" t="s">
@@ -4645,11 +4654,11 @@
         <v>-6.0952637619047394</v>
       </c>
       <c r="K8" s="17">
-        <f t="shared" ref="K8:K20" si="7">2*K7</f>
+        <f t="shared" ref="K8:K17" si="7">2*K7</f>
         <v>2</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" ref="L8:L20" si="8">L7/2</f>
+        <f t="shared" ref="L8:L17" si="8">L7/2</f>
         <v>2</v>
       </c>
       <c r="M8" s="22">
@@ -5076,38 +5085,38 @@
         <f t="shared" si="6"/>
         <v>-1.1219047379995573E-6</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="50">
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="51">
         <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="M14" s="33">
         <v>20.433528899999999</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="50">
         <f t="shared" si="9"/>
         <v>5.2285180272289216</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="50">
         <f t="shared" si="10"/>
         <v>1.5000000004674623</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="50">
         <f t="shared" si="1"/>
         <v>-4.4932999898605885E-7</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="50">
         <f t="shared" si="15"/>
         <v>-1.2666666672582021E-7</v>
       </c>
-      <c r="R14" s="60">
+      <c r="R14" s="50">
         <f t="shared" si="11"/>
         <v>20.433528773333332</v>
       </c>
-      <c r="S14" s="60">
+      <c r="S14" s="50">
         <f t="shared" si="12"/>
         <v>-3.2266333249708623E-7</v>
       </c>
@@ -5232,27 +5241,27 @@
         <v>20.433521299999999</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" ref="N16:N20" si="16">P15/P16</f>
+        <f t="shared" ref="N16:N17" si="16">P15/P16</f>
         <v>0.46858126563837521</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" ref="O16:O20" si="17">(M17-M15)/(M17-M16)</f>
+        <f t="shared" ref="O16:O17" si="17">(M17-M15)/(M17-M16)</f>
         <v>0.49999999976626885</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" ref="P16:P20" si="18">K$4-M16</f>
+        <f t="shared" ref="P16:P17" si="18">K$4-M16</f>
         <v>7.1506700010104396E-6</v>
       </c>
       <c r="Q16" s="20">
-        <f t="shared" ref="Q16:Q20" si="19">(M16-M15)/(16 - 1)</f>
+        <f t="shared" ref="Q16:Q17" si="19">(M16-M15)/(16 - 1)</f>
         <v>-2.5333333345164043E-7</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" ref="R16:R20" si="20">Q16+M16</f>
+        <f t="shared" ref="R16:R17" si="20">Q16+M16</f>
         <v>20.433521046666666</v>
       </c>
       <c r="S16" s="20">
-        <f t="shared" ref="S16:S20" si="21" xml:space="preserve"> K$4 -R16</f>
+        <f t="shared" ref="S16:S17" si="21" xml:space="preserve"> K$4 -R16</f>
         <v>7.4040033339883848E-6</v>
       </c>
     </row>
@@ -5329,48 +5338,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="17">
-        <f t="shared" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="B18" s="18">
-        <f t="shared" si="3"/>
-        <v>1.953125E-3</v>
-      </c>
       <c r="C18" s="19">
         <v>36.571437799999998</v>
       </c>
-      <c r="D18" s="17">
-        <f t="shared" ref="D18" si="22">F17/F18</f>
-        <v>-1.0588235358883016</v>
-      </c>
-      <c r="E18" s="7">
-        <f>(C19-C17)/(C19-C18)</f>
-        <v>0.68852459011046707</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" ref="F18" si="23">A$4-C18</f>
-        <v>-9.2285714003992325E-6</v>
-      </c>
-      <c r="G18" s="17">
-        <f t="shared" ref="G18" si="24">(C18-C17)/(16 - 1)</f>
-        <v>1.266666666784507E-6</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" ref="H18" si="25">G18+C18</f>
-        <v>36.571439066666663</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" ref="I18" si="26" xml:space="preserve"> A$4 -H18</f>
-        <v>-1.0495238065288959E-5</v>
-      </c>
       <c r="M18" s="22">
         <v>20.433527000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="C19" s="19">
-        <v>36.571376800000003</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5383,66 +5355,66 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
     </row>
     <row r="29" spans="1:19">
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
     </row>
     <row r="30" spans="1:19">
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
     </row>
     <row r="31" spans="1:19" ht="14.25" customHeight="1">
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
-      <c r="K31" s="53">
+      <c r="K31" s="55">
         <v>20.43352845067</v>
       </c>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="55"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="57"/>
     </row>
     <row r="32" spans="1:19" ht="114" customHeight="1">
       <c r="F32" s="30"/>
@@ -5515,7 +5487,7 @@
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38">
-        <f>K$4-M34</f>
+        <f t="shared" ref="P34:P50" si="22">K$4-M34</f>
         <v>-6.4580114785335994</v>
       </c>
       <c r="Q34" s="37"/>
@@ -5528,26 +5500,26 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="K35" s="17">
-        <f t="shared" ref="K35:K50" si="27">2*K34</f>
+        <f t="shared" ref="K35:K50" si="23">2*K34</f>
         <v>2</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" ref="L35:L50" si="28">L34/2</f>
+        <f t="shared" ref="L35:L50" si="24">L34/2</f>
         <v>12.5</v>
       </c>
       <c r="M35" s="39">
         <v>27.119576815938</v>
       </c>
       <c r="N35" s="40">
-        <f t="shared" ref="N35:N50" si="29">P34/P35</f>
+        <f t="shared" ref="N35:N50" si="25">P34/P35</f>
         <v>0.96589362291798786</v>
       </c>
       <c r="O35" s="41">
-        <f t="shared" ref="O35:O50" si="30">(M36-M34)/(M36-M35)</f>
+        <f t="shared" ref="O35:O50" si="26">(M36-M34)/(M36-M35)</f>
         <v>0.97602974359529615</v>
       </c>
       <c r="P35" s="40">
-        <f>K$4-M35</f>
+        <f t="shared" si="22"/>
         <v>-6.6860483652680003</v>
       </c>
       <c r="Q35" s="40">
@@ -5555,11 +5527,11 @@
         <v>1.5202459115626728E-2</v>
       </c>
       <c r="R35" s="40">
-        <f t="shared" ref="R35:R50" si="31">Q35+M35</f>
+        <f t="shared" ref="R35:R50" si="27">Q35+M35</f>
         <v>27.134779275053628</v>
       </c>
       <c r="S35" s="40">
-        <f xml:space="preserve"> K$4 -R35</f>
+        <f t="shared" ref="S35:S50" si="28" xml:space="preserve"> K$4 -R35</f>
         <v>-6.701250824383628</v>
       </c>
     </row>
@@ -5569,38 +5541,38 @@
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="K36" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>6.25</v>
       </c>
       <c r="M36" s="39">
         <v>17.606249845866401</v>
       </c>
       <c r="N36" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>-2.3648353416279102</v>
       </c>
       <c r="O36" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>-2.3399177249492271</v>
       </c>
       <c r="P36" s="40">
-        <f>K$4-M36</f>
+        <f t="shared" si="22"/>
         <v>2.8272786048035989</v>
       </c>
       <c r="Q36" s="40">
-        <f t="shared" ref="Q36:Q50" si="32">(M36-M35)/(16 - 1)</f>
+        <f t="shared" ref="Q36:Q50" si="29">(M36-M35)/(16 - 1)</f>
         <v>-0.6342217980047733</v>
       </c>
       <c r="R36" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>16.972028047861627</v>
       </c>
       <c r="S36" s="40">
-        <f xml:space="preserve"> K$4 -R36</f>
+        <f t="shared" si="28"/>
         <v>3.4615004028083725</v>
       </c>
     </row>
@@ -5610,38 +5582,38 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="K37" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>3.125</v>
       </c>
       <c r="M37" s="39">
         <v>20.454621498559199</v>
       </c>
       <c r="N37" s="40">
+        <f t="shared" si="25"/>
+        <v>-134.03841017453752</v>
+      </c>
+      <c r="O37" s="41">
+        <f t="shared" si="26"/>
+        <v>-141.06774886684977</v>
+      </c>
+      <c r="P37" s="40">
+        <f t="shared" si="22"/>
+        <v>-2.1093047889198857E-2</v>
+      </c>
+      <c r="Q37" s="40">
         <f t="shared" si="29"/>
-        <v>-134.03841017453752</v>
-      </c>
-      <c r="O37" s="41">
-        <f t="shared" si="30"/>
-        <v>-141.06774886684977</v>
-      </c>
-      <c r="P37" s="40">
-        <f>K$4-M37</f>
-        <v>-2.1093047889198857E-2</v>
-      </c>
-      <c r="Q37" s="40">
-        <f t="shared" si="32"/>
         <v>0.1898914435128532</v>
       </c>
       <c r="R37" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.644512942072051</v>
       </c>
       <c r="S37" s="40">
-        <f xml:space="preserve"> K$4 -R37</f>
+        <f t="shared" si="28"/>
         <v>-0.21098449140205133</v>
       </c>
     </row>
@@ -5651,38 +5623,38 @@
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="K38" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1.5625</v>
       </c>
       <c r="M38" s="39">
         <v>20.434572108916498</v>
       </c>
       <c r="N38" s="40">
+        <f t="shared" si="25"/>
+        <v>20.210684829032985</v>
+      </c>
+      <c r="O38" s="41">
+        <f t="shared" si="26"/>
+        <v>21.419463897849806</v>
+      </c>
+      <c r="P38" s="40">
+        <f t="shared" si="22"/>
+        <v>-1.0436582464983246E-3</v>
+      </c>
+      <c r="Q38" s="40">
         <f t="shared" si="29"/>
-        <v>20.210684829032985</v>
-      </c>
-      <c r="O38" s="41">
-        <f t="shared" si="30"/>
-        <v>21.419463897849806</v>
-      </c>
-      <c r="P38" s="40">
-        <f>K$4-M38</f>
-        <v>-1.0436582464983246E-3</v>
-      </c>
-      <c r="Q38" s="40">
-        <f t="shared" si="32"/>
         <v>-1.3366259761800356E-3</v>
       </c>
       <c r="R38" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433235482940319</v>
       </c>
       <c r="S38" s="40">
-        <f xml:space="preserve"> K$4 -R38</f>
+        <f t="shared" si="28"/>
         <v>2.9296772968123719E-4</v>
       </c>
     </row>
@@ -5692,38 +5664,38 @@
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
       <c r="K39" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="L39" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.78125</v>
       </c>
       <c r="M39" s="39">
         <v>20.4335902325194</v>
       </c>
       <c r="N39" s="40">
+        <f t="shared" si="25"/>
+        <v>16.892635242134723</v>
+      </c>
+      <c r="O39" s="41">
+        <f t="shared" si="26"/>
+        <v>17.937223868031463</v>
+      </c>
+      <c r="P39" s="40">
+        <f t="shared" si="22"/>
+        <v>-6.1781849399977773E-5</v>
+      </c>
+      <c r="Q39" s="40">
         <f t="shared" si="29"/>
-        <v>16.892635242134723</v>
-      </c>
-      <c r="O39" s="41">
-        <f t="shared" si="30"/>
-        <v>17.937223868031463</v>
-      </c>
-      <c r="P39" s="40">
-        <f>K$4-M39</f>
-        <v>-6.1781849399977773E-5</v>
-      </c>
-      <c r="Q39" s="40">
-        <f t="shared" si="32"/>
         <v>-6.5458426473223119E-5</v>
       </c>
       <c r="R39" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433524774092927</v>
       </c>
       <c r="S39" s="40">
-        <f xml:space="preserve"> K$4 -R39</f>
+        <f t="shared" si="28"/>
         <v>3.6765770730085023E-6</v>
       </c>
     </row>
@@ -5733,38 +5705,38 @@
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="K40" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.390625</v>
       </c>
       <c r="M40" s="39">
         <v>20.4335322610121</v>
       </c>
       <c r="N40" s="40">
+        <f t="shared" si="25"/>
+        <v>16.214252623602466</v>
+      </c>
+      <c r="O40" s="41">
+        <f t="shared" si="26"/>
+        <v>17.224963013960458</v>
+      </c>
+      <c r="P40" s="40">
+        <f t="shared" si="22"/>
+        <v>-3.8103421005075688E-6</v>
+      </c>
+      <c r="Q40" s="40">
         <f t="shared" si="29"/>
-        <v>16.214252623602466</v>
-      </c>
-      <c r="O40" s="41">
-        <f t="shared" si="30"/>
-        <v>17.224963013960458</v>
-      </c>
-      <c r="P40" s="40">
-        <f>K$4-M40</f>
-        <v>-3.8103421005075688E-6</v>
-      </c>
-      <c r="Q40" s="40">
-        <f t="shared" si="32"/>
         <v>-3.8647671532980137E-6</v>
       </c>
       <c r="R40" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528396244949</v>
       </c>
       <c r="S40" s="40">
-        <f xml:space="preserve"> K$4 -R40</f>
+        <f t="shared" si="28"/>
         <v>5.4425051132511726E-8</v>
       </c>
     </row>
@@ -5774,38 +5746,38 @@
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="K41" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>128</v>
       </c>
       <c r="L41" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.1953125</v>
       </c>
       <c r="M41" s="39">
         <v>20.4335286880297</v>
       </c>
       <c r="N41" s="38">
+        <f t="shared" si="25"/>
+        <v>16.053028808988053</v>
+      </c>
+      <c r="O41" s="42">
+        <f t="shared" si="26"/>
+        <v>17.05567790734521</v>
+      </c>
+      <c r="P41" s="38">
+        <f t="shared" si="22"/>
+        <v>-2.3735969989502337E-7</v>
+      </c>
+      <c r="Q41" s="38">
         <f t="shared" si="29"/>
-        <v>16.053028808988053</v>
-      </c>
-      <c r="O41" s="42">
-        <f t="shared" si="30"/>
-        <v>17.05567790734521</v>
-      </c>
-      <c r="P41" s="38">
-        <f>K$4-M41</f>
-        <v>-2.3735969989502337E-7</v>
-      </c>
-      <c r="Q41" s="38">
-        <f t="shared" si="32"/>
         <v>-2.3819882670750304E-7</v>
       </c>
       <c r="R41" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528449830874</v>
       </c>
       <c r="S41" s="38">
-        <f xml:space="preserve"> K$4 -R41</f>
+        <f t="shared" si="28"/>
         <v>8.3912610193692672E-10</v>
       </c>
     </row>
@@ -5815,38 +5787,38 @@
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="K42" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>256</v>
       </c>
       <c r="L42" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>9.765625E-2</v>
       </c>
       <c r="M42" s="39">
         <v>20.433528465492699</v>
       </c>
       <c r="N42" s="40">
+        <f t="shared" si="25"/>
+        <v>16.013257213966956</v>
+      </c>
+      <c r="O42" s="40">
+        <f t="shared" si="26"/>
+        <v>17.013888473449047</v>
+      </c>
+      <c r="P42" s="40">
+        <f t="shared" si="22"/>
+        <v>-1.4822699512251347E-8</v>
+      </c>
+      <c r="Q42" s="40">
         <f t="shared" si="29"/>
-        <v>16.013257213966956</v>
-      </c>
-      <c r="O42" s="40">
-        <f t="shared" si="30"/>
-        <v>17.013888473449047</v>
-      </c>
-      <c r="P42" s="40">
-        <f>K$4-M42</f>
-        <v>-1.4822699512251347E-8</v>
-      </c>
-      <c r="Q42" s="40">
-        <f t="shared" si="32"/>
         <v>-1.4835800025518135E-8</v>
       </c>
       <c r="R42" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450656901</v>
       </c>
       <c r="S42" s="40">
-        <f xml:space="preserve"> K$4 -R42</f>
+        <f t="shared" si="28"/>
         <v>1.3098855333737447E-11</v>
       </c>
     </row>
@@ -5856,38 +5828,38 @@
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="K43" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>512</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>4.8828125E-2</v>
       </c>
       <c r="M43" s="39">
         <v>20.433528451596199</v>
       </c>
       <c r="N43" s="43">
+        <f t="shared" si="25"/>
+        <v>16.003785931830212</v>
+      </c>
+      <c r="O43" s="44">
+        <f t="shared" si="26"/>
+        <v>17.004242957386307</v>
+      </c>
+      <c r="P43" s="43">
+        <f t="shared" si="22"/>
+        <v>-9.2619956149064819E-10</v>
+      </c>
+      <c r="Q43" s="43">
         <f t="shared" si="29"/>
-        <v>16.003785931830212</v>
-      </c>
-      <c r="O43" s="44">
-        <f t="shared" si="30"/>
-        <v>17.004242957386307</v>
-      </c>
-      <c r="P43" s="43">
-        <f>K$4-M43</f>
-        <v>-9.2619956149064819E-10</v>
-      </c>
-      <c r="Q43" s="43">
-        <f t="shared" si="32"/>
         <v>-9.2643333005071322E-10</v>
       </c>
       <c r="R43" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450669765</v>
       </c>
       <c r="S43" s="43">
-        <f xml:space="preserve"> K$4 -R43</f>
+        <f t="shared" si="28"/>
         <v>2.3447910280083306E-13</v>
       </c>
     </row>
@@ -5897,260 +5869,260 @@
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="K44" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>1024</v>
       </c>
       <c r="L44" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>2.44140625E-2</v>
       </c>
       <c r="M44" s="39">
         <v>20.433528450727898</v>
       </c>
       <c r="N44" s="40">
+        <f t="shared" si="25"/>
+        <v>15.996931950665767</v>
+      </c>
+      <c r="O44" s="41">
+        <f t="shared" si="26"/>
+        <v>16.99090552211463</v>
+      </c>
+      <c r="P44" s="40">
+        <f t="shared" si="22"/>
+        <v>-5.7898574823411764E-11</v>
+      </c>
+      <c r="Q44" s="40">
         <f t="shared" si="29"/>
-        <v>15.996931950665767</v>
-      </c>
-      <c r="O44" s="41">
-        <f t="shared" si="30"/>
-        <v>16.99090552211463</v>
-      </c>
-      <c r="P44" s="40">
-        <f>K$4-M44</f>
-        <v>-5.7898574823411764E-11</v>
-      </c>
-      <c r="Q44" s="40">
-        <f t="shared" si="32"/>
         <v>-5.7886732444482426E-11</v>
       </c>
       <c r="R44" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450670011</v>
       </c>
       <c r="S44" s="40">
-        <f xml:space="preserve"> K$4 -R44</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:19">
       <c r="K45" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2048</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1.220703125E-2</v>
       </c>
       <c r="M45" s="39">
         <v>20.433528450673599</v>
       </c>
       <c r="N45" s="40">
+        <f t="shared" si="25"/>
+        <v>16.087857847976309</v>
+      </c>
+      <c r="O45" s="41">
+        <f t="shared" si="26"/>
+        <v>16.970741901776385</v>
+      </c>
+      <c r="P45" s="40">
+        <f t="shared" si="22"/>
+        <v>-3.5988989566249074E-12</v>
+      </c>
+      <c r="Q45" s="40">
         <f t="shared" si="29"/>
-        <v>16.087857847976309</v>
-      </c>
-      <c r="O45" s="41">
-        <f t="shared" si="30"/>
-        <v>16.970741901776385</v>
-      </c>
-      <c r="P45" s="40">
-        <f>K$4-M45</f>
-        <v>-3.5988989566249074E-12</v>
-      </c>
-      <c r="Q45" s="40">
-        <f t="shared" si="32"/>
         <v>-3.6199783911191236E-12</v>
       </c>
       <c r="R45" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450669979</v>
       </c>
       <c r="S45" s="40">
-        <f xml:space="preserve"> K$4 -R45</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="6:19">
       <c r="K46" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>4096</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>6.103515625E-3</v>
       </c>
       <c r="M46" s="39">
         <v>20.433528450670199</v>
       </c>
       <c r="N46" s="40">
+        <f t="shared" si="25"/>
+        <v>18.089285714285715</v>
+      </c>
+      <c r="O46" s="41">
+        <f t="shared" si="26"/>
+        <v>18.089285714285715</v>
+      </c>
+      <c r="P46" s="40">
+        <f t="shared" si="22"/>
+        <v>-1.9895196601282805E-13</v>
+      </c>
+      <c r="Q46" s="40">
         <f t="shared" si="29"/>
-        <v>18.089285714285715</v>
-      </c>
-      <c r="O46" s="41">
-        <f t="shared" si="30"/>
-        <v>18.089285714285715</v>
-      </c>
-      <c r="P46" s="40">
-        <f>K$4-M46</f>
-        <v>-1.9895196601282805E-13</v>
-      </c>
-      <c r="Q46" s="40">
-        <f t="shared" si="32"/>
         <v>-2.2666313270747195E-13</v>
       </c>
       <c r="R46" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450669971</v>
       </c>
       <c r="S46" s="40">
-        <f xml:space="preserve"> K$4 -R46</f>
+        <f t="shared" si="28"/>
         <v>2.8421709430404007E-14</v>
       </c>
     </row>
     <row r="47" spans="6:19">
       <c r="K47" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>8192</v>
       </c>
       <c r="L47" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>3.0517578125E-3</v>
       </c>
       <c r="M47" s="45">
         <v>20.43352845067</v>
       </c>
       <c r="N47" s="46" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="46">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="P47" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="46">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="46">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="P47" s="46">
-        <f>K$4-M47</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="46">
-        <f t="shared" si="32"/>
         <v>-1.3263464400855204E-14</v>
       </c>
       <c r="R47" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450669986</v>
       </c>
       <c r="S47" s="46">
-        <f xml:space="preserve"> K$4 -R47</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="6:19">
       <c r="K48" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>16384</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>1.52587890625E-3</v>
       </c>
       <c r="M48" s="49">
         <v>20.433528450670099</v>
       </c>
       <c r="N48" s="40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="40">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="40">
+        <f t="shared" si="22"/>
+        <v>-9.9475983006414026E-14</v>
+      </c>
+      <c r="Q48" s="40">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="40">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="40">
-        <f>K$4-M48</f>
-        <v>-9.9475983006414026E-14</v>
-      </c>
-      <c r="Q48" s="40">
-        <f t="shared" si="32"/>
         <v>6.6317322004276018E-15</v>
       </c>
       <c r="R48" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450670106</v>
       </c>
       <c r="S48" s="40">
-        <f xml:space="preserve"> K$4 -R48</f>
+        <f t="shared" si="28"/>
         <v>-1.0658141036401503E-13</v>
       </c>
     </row>
     <row r="49" spans="11:19">
       <c r="K49" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>32768</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>7.62939453125E-4</v>
       </c>
       <c r="M49" s="39">
         <v>20.43352845067</v>
       </c>
       <c r="N49" s="40" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" s="41">
+        <f t="shared" si="26"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P49" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="40">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O49" s="41">
-        <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P49" s="40">
-        <f>K$4-M49</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="40">
-        <f t="shared" si="32"/>
         <v>-6.6317322004276018E-15</v>
       </c>
       <c r="R49" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.433528450669993</v>
       </c>
       <c r="S49" s="40">
-        <f xml:space="preserve"> K$4 -R49</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:19">
       <c r="K50" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>65536</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>3.814697265625E-4</v>
       </c>
       <c r="M50" s="39">
         <v>20.433528450670298</v>
       </c>
       <c r="N50" s="40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="41">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="P50" s="40">
+        <f t="shared" si="22"/>
+        <v>-2.9842794901924208E-13</v>
+      </c>
+      <c r="Q50" s="40">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="41">
-        <f t="shared" si="30"/>
-        <v>0.25</v>
-      </c>
-      <c r="P50" s="40">
-        <f>K$4-M50</f>
-        <v>-2.9842794901924208E-13</v>
-      </c>
-      <c r="Q50" s="40">
-        <f t="shared" si="32"/>
         <v>1.9895196601282804E-14</v>
       </c>
       <c r="R50" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>20.43352845067032</v>
       </c>
       <c r="S50" s="40">
-        <f xml:space="preserve"> K$4 -R50</f>
+        <f t="shared" si="28"/>
         <v>-3.1974423109204508E-13</v>
       </c>
     </row>
@@ -6194,7 +6166,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6210,46 +6182,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="114">
       <c r="A4" s="1" t="s">
@@ -6328,10 +6300,10 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="50">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9">
@@ -6353,8 +6325,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8">
         <v>2</v>
@@ -6384,10 +6356,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="50">
+      <c r="A9" s="52">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="9">
@@ -6409,8 +6381,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8">
         <v>2</v>
@@ -6440,10 +6412,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="50">
+      <c r="A11" s="52">
         <v>5</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="9">
@@ -6465,8 +6437,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8">
         <v>2</v>
@@ -6520,8 +6492,8 @@
   </sheetPr>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:S23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6545,101 +6517,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="K1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="K2" s="51" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="K3" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="K3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="57">
-        <v>4.8816964285699997</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="K4" s="51">
-        <f>20 *SIN(20) + COS(20) - 5* SIN(5) - COS(5)</f>
-        <v>23.177946264218413</v>
-      </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
+      <c r="A4" s="59">
+        <v>36.571428571428598</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="K4" s="59">
+        <v>20.43352845067</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
     </row>
     <row r="5" spans="1:19" ht="114">
       <c r="A5" s="1" t="s">
@@ -6734,16 +6705,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>1.265625</v>
+        <v>9.4814796000000001</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="17">
         <f t="shared" ref="F7:F17" si="0">A$4-C7</f>
-        <v>3.6160714285699997</v>
+        <v>27.089948971428598</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -6752,16 +6723,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="21">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M7" s="22">
-        <v>-73.784034700000007</v>
+        <v>22.272001299999999</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P18" si="1">K$4-M7</f>
-        <v>96.961980964218412</v>
+        <v>-1.8384728493299995</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
@@ -6774,69 +6745,68 @@
       </c>
       <c r="B8" s="18">
         <f t="shared" ref="B8:B18" si="3">B7/2</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="19">
-        <v>4.1132812999999997</v>
+        <v>30.814809799999999</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ref="D8:D17" si="4">F7/F8</f>
-        <v>4.7058826591551002</v>
+        <v>4.7058785803017118</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" ref="E8:E17" si="5">(C9-C7)/(C9-C8)</f>
-        <v>4.9999976120727938</v>
+        <v>4.9999989125001356</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="0"/>
-        <v>0.76841512857000005</v>
+        <v>5.7566187714285988</v>
       </c>
       <c r="G8" s="17">
         <f>(C8-C7)/(16 - 1)</f>
-        <v>0.18984375333333331</v>
+        <v>1.4222220133333332</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" ref="H8:H17" si="6">G8+C8</f>
-        <v>4.3031250533333329</v>
+        <v>32.237031813333331</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" ref="I8:I17" si="7" xml:space="preserve"> A$4 -H8</f>
-        <v>0.5785713752366668</v>
+        <v>4.3343967580952665</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" ref="K8:K18" si="8">2*K7</f>
         <v>2</v>
       </c>
       <c r="L8" s="18">
-        <f t="shared" ref="L8:L18" si="9">L7/2</f>
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="22">
-        <v>85.683486900000005</v>
+        <v>14.4113522</v>
       </c>
       <c r="N8" s="17">
-        <f t="shared" ref="N8:N18" si="10">P7/P8</f>
-        <v>-1.5512541764771501</v>
+        <f t="shared" ref="N8:N18" si="9">P7/P8</f>
+        <v>-0.30528379987640836</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" ref="O8:O18" si="11">(M9-M7)/(M9-M8)</f>
-        <v>-1.4814185914355373</v>
+        <f t="shared" ref="O8:O18" si="10">(M9-M7)/(M9-M8)</f>
+        <v>2.7204552385956478E-2</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="1"/>
-        <v>-62.505540635781593</v>
+        <v>6.0221762506700003</v>
       </c>
       <c r="Q8" s="17">
         <f>(M8-M7)/(16 - 1)</f>
-        <v>10.631168106666667</v>
+        <v>-0.52404327333333334</v>
       </c>
       <c r="R8" s="17">
-        <f t="shared" ref="R8:R18" si="12">Q8+M8</f>
-        <v>96.314655006666669</v>
+        <f t="shared" ref="R8:R18" si="11">Q8+M8</f>
+        <v>13.887308926666666</v>
       </c>
       <c r="S8" s="17">
-        <f t="shared" ref="S8:S18" si="13" xml:space="preserve"> K$4 -R8</f>
-        <v>-73.136708742448263</v>
+        <f t="shared" ref="S8:S18" si="12" xml:space="preserve"> K$4 -R8</f>
+        <v>6.5462195240033338</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6846,69 +6816,69 @@
       </c>
       <c r="B9" s="18">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C9" s="19">
-        <v>4.8251958000000004</v>
+        <v>36.1481438</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="4"/>
-        <v>13.600116459200102</v>
+        <v>13.59987214281262</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="5"/>
-        <v>14.473940313874678</v>
+        <v>14.473469184621845</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>5.6500628569999378E-2</v>
+        <v>0.42328477142859811</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" ref="G9:G17" si="14">(C9-C8)/(16 - 1)</f>
-        <v>4.7460966666666708E-2</v>
+        <f t="shared" ref="G9:G17" si="13">(C9-C8)/(16 - 1)</f>
+        <v>0.35555560000000003</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>4.8726567666666671</v>
+        <v>36.503699400000002</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="7"/>
-        <v>9.0396619033326076E-3</v>
+        <v>6.7729171428595691E-2</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="L9" s="18">
+        <f t="shared" ref="L8:L18" si="14">L8/2</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="22">
+        <v>22.491827000000001</v>
+      </c>
+      <c r="N9" s="17">
         <f t="shared" si="9"/>
-        <v>6.25</v>
-      </c>
-      <c r="M9" s="22">
-        <v>21.418827100000001</v>
-      </c>
-      <c r="N9" s="17">
+        <v>-2.9258030875211403</v>
+      </c>
+      <c r="O9" s="11">
         <f t="shared" si="10"/>
-        <v>-35.53229474567928</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="11"/>
-        <v>-37.108779214538167</v>
+        <v>-2.8986792793753398</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="1"/>
-        <v>1.7591191642184114</v>
+        <v>-2.0582985493300008</v>
       </c>
       <c r="Q9" s="17">
         <f t="shared" ref="Q9:Q18" si="15">(M9-M8)/(16 - 1)</f>
-        <v>-4.2843106533333337</v>
+        <v>0.53869832000000006</v>
       </c>
       <c r="R9" s="17">
+        <f t="shared" si="11"/>
+        <v>23.030525320000002</v>
+      </c>
+      <c r="S9" s="17">
         <f t="shared" si="12"/>
-        <v>17.134516446666666</v>
-      </c>
-      <c r="S9" s="17">
-        <f t="shared" si="13"/>
-        <v>6.0434298175517469</v>
+        <v>-2.5969968693300025</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6918,69 +6888,69 @@
       </c>
       <c r="B10" s="18">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="19">
-        <v>4.8780321999999998</v>
+        <v>36.543983500000003</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="4"/>
-        <v>15.419515319700837</v>
+        <v>15.422979405605837</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="5"/>
-        <v>16.387599382588132</v>
+        <v>16.391183812495253</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>3.6642285699999277E-3</v>
+        <v>2.7445071428594758E-2</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="14"/>
-        <v>3.5224266666666298E-3</v>
+        <f t="shared" si="13"/>
+        <v>2.6389313333333556E-2</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="6"/>
-        <v>4.8815546266666665</v>
+        <v>36.570372813333336</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="7"/>
-        <v>1.418019033332385E-4</v>
+        <v>1.0557580952621493E-3</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="L10" s="18">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="22">
+        <v>20.4192085</v>
+      </c>
+      <c r="N10" s="17">
         <f t="shared" si="9"/>
-        <v>3.125</v>
-      </c>
-      <c r="M10" s="22">
-        <v>23.105174999999999</v>
-      </c>
-      <c r="N10" s="17">
+        <v>-143.73642736368427</v>
+      </c>
+      <c r="O10" s="11">
         <f t="shared" si="10"/>
-        <v>24.173266509959728</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="11"/>
-        <v>25.582438407164997</v>
+        <v>-151.14893960636368</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="1"/>
-        <v>7.2771264218413734E-2</v>
+        <v>1.4319950670000026E-2</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="15"/>
-        <v>0.11242319333333319</v>
+        <v>-0.13817456666666672</v>
       </c>
       <c r="R10" s="17">
+        <f t="shared" si="11"/>
+        <v>20.281033933333333</v>
+      </c>
+      <c r="S10" s="17">
         <f t="shared" si="12"/>
-        <v>23.217598193333334</v>
-      </c>
-      <c r="S10" s="17">
-        <f t="shared" si="13"/>
-        <v>-3.9651929114921103E-2</v>
+        <v>0.15249451733666675</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6990,69 +6960,69 @@
       </c>
       <c r="B11" s="18">
         <f t="shared" si="3"/>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="19">
-        <v>4.8814659000000002</v>
+        <v>36.569702100000001</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="4"/>
-        <v>15.894900011776764</v>
+        <v>15.896626479880471</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="5"/>
-        <v>16.933642691455749</v>
+        <v>16.900216383288139</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="0"/>
-        <v>2.3052856999949967E-4</v>
+        <v>1.726471428597165E-3</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="14"/>
-        <v>2.2891333333336188E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.714573333333173E-3</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>4.8816948133333335</v>
+        <v>36.571416673333331</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="7"/>
-        <v>1.6152366661970063E-6</v>
+        <v>1.1898095266360542E-5</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="L11" s="18">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="22">
+        <v>20.432830800000001</v>
+      </c>
+      <c r="N11" s="17">
         <f t="shared" si="9"/>
-        <v>1.5625</v>
-      </c>
-      <c r="M11" s="22">
-        <v>23.173774699999999</v>
-      </c>
-      <c r="N11" s="17">
+        <v>20.525961323925788</v>
+      </c>
+      <c r="O11" s="11">
         <f t="shared" si="10"/>
-        <v>17.444598814323474</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="11"/>
-        <v>18.518693498129199</v>
+        <v>21.762536198849368</v>
       </c>
       <c r="P11" s="17">
         <f t="shared" si="1"/>
-        <v>4.1715642184136925E-3</v>
+        <v>6.9765066999849523E-4</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="15"/>
-        <v>4.5733133333333365E-3</v>
+        <v>9.0815333333343537E-4</v>
       </c>
       <c r="R11" s="17">
+        <f t="shared" si="11"/>
+        <v>20.433738953333336</v>
+      </c>
+      <c r="S11" s="17">
         <f t="shared" si="12"/>
-        <v>23.178348013333334</v>
-      </c>
-      <c r="S11" s="17">
-        <f t="shared" si="13"/>
-        <v>-4.017491149213015E-4</v>
+        <v>-2.1050266333588752E-4</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7062,69 +7032,69 @@
       </c>
       <c r="B12" s="18">
         <f t="shared" si="3"/>
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C12" s="19">
-        <v>4.8816813999999997</v>
+        <v>36.571319600000002</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="4"/>
-        <v>15.339354975170489</v>
+        <v>15.843340321877806</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="5"/>
-        <v>16.069930069752861</v>
+        <v>16.703883495812036</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
-        <v>1.502857000001967E-5</v>
+        <v>1.0897142859533915E-4</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="14"/>
-        <v>1.4366666666632E-5</v>
+        <f t="shared" si="13"/>
+        <v>1.0783333333345506E-4</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>4.8816957666666667</v>
+        <v>36.571427433333334</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="7"/>
-        <v>6.6190333303239868E-7</v>
+        <v>1.1380952642525699E-6</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="L12" s="18">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+      <c r="M12" s="22">
+        <v>20.433486899999998</v>
+      </c>
+      <c r="N12" s="17">
         <f t="shared" si="9"/>
-        <v>0.78125</v>
-      </c>
-      <c r="M12" s="22">
-        <v>23.177690500000001</v>
-      </c>
-      <c r="N12" s="17">
+        <v>16.790359095831114</v>
+      </c>
+      <c r="O12" s="11">
         <f t="shared" si="10"/>
-        <v>16.31019477357162</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="11"/>
-        <v>17.295464003472759</v>
+        <v>16.621428571154262</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="1"/>
-        <v>2.5576421841222441E-4</v>
+        <v>4.1550670001555545E-5</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="15"/>
-        <v>2.6105333333343119E-4</v>
+        <v>4.3739999999795978E-5</v>
       </c>
       <c r="R12" s="17">
+        <f t="shared" si="11"/>
+        <v>20.433530639999997</v>
+      </c>
+      <c r="S12" s="17">
         <f t="shared" si="12"/>
-        <v>23.177951553333333</v>
-      </c>
-      <c r="S12" s="17">
-        <f t="shared" si="13"/>
-        <v>-5.2891149202594079E-6</v>
+        <v>-2.1893299972930436E-6</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7134,69 +7104,69 @@
       </c>
       <c r="B13" s="18">
         <f t="shared" si="3"/>
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="19">
-        <v>4.8816956999999999</v>
+        <v>36.571422599999998</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>20.627489468919666</v>
+        <v>18.248803745681972</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="5"/>
-        <v>29.599999970867749</v>
+        <v>28.105263144116901</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>7.2856999988601956E-7</v>
+        <v>5.9714285995937644E-6</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="14"/>
-        <v>9.5333333334224339E-7</v>
+        <f t="shared" si="13"/>
+        <v>6.8666666663830256E-6</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>4.881696653333333</v>
+        <v>36.571429466666665</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="7"/>
-        <v>-2.2476333327858811E-7</v>
+        <v>-8.9523806678926121E-7</v>
       </c>
       <c r="K13" s="31">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="L13" s="32">
-        <f t="shared" si="9"/>
-        <v>0.390625</v>
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
       </c>
       <c r="M13" s="33">
-        <v>23.177930799999999</v>
+        <v>20.433528899999999</v>
       </c>
       <c r="N13" s="31">
+        <f>P12/P13</f>
+        <v>-92.472503717350776</v>
+      </c>
+      <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>16.539097648576526</v>
-      </c>
-      <c r="O13" s="31">
-        <f t="shared" si="11"/>
-        <v>0.4669476486284766</v>
+        <v>12.052631573928299</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="1"/>
-        <v>1.5464218414251718E-5</v>
+        <v>-4.4932999898605885E-7</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="15"/>
-        <v>1.6019999999864847E-5</v>
+        <v>2.8000000000361068E-6</v>
       </c>
       <c r="R13" s="31">
+        <f t="shared" si="11"/>
+        <v>20.4335317</v>
+      </c>
+      <c r="S13" s="31">
         <f t="shared" si="12"/>
-        <v>23.177946819999999</v>
-      </c>
-      <c r="S13" s="31">
-        <f t="shared" si="13"/>
-        <v>-5.5578158608682315E-7</v>
+        <v>-3.2493299997327085E-6</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7206,69 +7176,69 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="3"/>
-        <v>2.34375E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C14" s="34">
-        <v>4.8816962000000004</v>
+        <v>36.5714264</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="4"/>
-        <v>3.1875136802189541</v>
-      </c>
-      <c r="E14" s="17" t="e">
+        <v>2.7499999795485235</v>
+      </c>
+      <c r="E14" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" si="0"/>
-        <v>2.2856999937204137E-7</v>
+        <v>2.1714285978191583E-6</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="14"/>
-        <v>3.3333333367598543E-8</v>
+        <f t="shared" si="13"/>
+        <v>2.5333333345164043E-7</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="6"/>
-        <v>4.8816962333333338</v>
+        <v>36.571426653333333</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="7"/>
-        <v>1.9523666594523092E-7</v>
+        <v>1.9180952648412131E-6</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="L14" s="21">
+        <f t="shared" si="14"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M14" s="22">
+        <v>20.433532700000001</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="9"/>
-        <v>0.1953125</v>
-      </c>
-      <c r="M14" s="22">
-        <v>23.177479999999999</v>
-      </c>
-      <c r="N14" s="20">
+        <v>0.1057413754416873</v>
+      </c>
+      <c r="O14" s="26">
         <f t="shared" si="10"/>
-        <v>3.3166213068770913E-2</v>
-      </c>
-      <c r="O14" s="26">
-        <f t="shared" si="11"/>
-        <v>3.2825573913629197E-2</v>
+        <v>0.49999999976626885</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="1"/>
-        <v>4.6626421841367005E-4</v>
+        <v>-4.2493300007606649E-6</v>
       </c>
       <c r="Q14" s="20">
         <f t="shared" si="15"/>
-        <v>-3.0053333333294555E-5</v>
+        <v>2.5333333345164043E-7</v>
       </c>
       <c r="R14" s="20">
+        <f t="shared" si="11"/>
+        <v>20.433532953333334</v>
+      </c>
+      <c r="S14" s="20">
         <f t="shared" si="12"/>
-        <v>23.177449946666666</v>
-      </c>
-      <c r="S14" s="20">
-        <f t="shared" si="13"/>
-        <v>4.9631755174672776E-4</v>
+        <v>-4.5026633337386102E-6</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7278,69 +7248,69 @@
       </c>
       <c r="B15" s="32">
         <f t="shared" si="3"/>
-        <v>1.171875E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C15" s="31">
-        <v>4.8816962000000004</v>
+        <v>36.571430200000002</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-1.3333333696915148</v>
       </c>
       <c r="E15" s="31">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="31">
         <f t="shared" si="0"/>
-        <v>2.2856999937204137E-7</v>
+        <v>-1.6285714039554477E-6</v>
       </c>
       <c r="G15" s="31">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2.5333333345164043E-7</v>
       </c>
       <c r="H15" s="31">
         <f t="shared" si="6"/>
-        <v>4.8816962000000004</v>
+        <v>36.571430453333335</v>
       </c>
       <c r="I15" s="31">
         <f t="shared" si="7"/>
-        <v>2.2856999937204137E-7</v>
+        <v>-1.881904736933393E-6</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="L15" s="18">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M15" s="35">
+        <v>20.433525100000001</v>
+      </c>
+      <c r="N15" s="17">
         <f t="shared" si="9"/>
-        <v>9.765625E-2</v>
-      </c>
-      <c r="M15" s="35">
-        <v>23.1779461</v>
-      </c>
-      <c r="N15" s="17">
+        <v>-1.2682030763189998</v>
+      </c>
+      <c r="O15" s="17">
         <f t="shared" si="10"/>
-        <v>2839.293168408693</v>
-      </c>
-      <c r="O15" s="17">
-        <f t="shared" si="11"/>
-        <v>-244.31578935942659</v>
+        <v>-2.9999999981301508</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="1"/>
-        <v>1.6421841309011143E-7</v>
+        <v>3.3506699992358335E-6</v>
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="15"/>
-        <v>3.1073333333371998E-5</v>
+        <v>-5.0666666666643319E-7</v>
       </c>
       <c r="R15" s="17">
+        <f t="shared" si="11"/>
+        <v>20.433524593333335</v>
+      </c>
+      <c r="S15" s="17">
         <f t="shared" si="12"/>
-        <v>23.177977173333332</v>
-      </c>
-      <c r="S15" s="17">
-        <f t="shared" si="13"/>
-        <v>-3.0909114919097647E-5</v>
+        <v>3.857336665191724E-6</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7350,69 +7320,69 @@
       </c>
       <c r="B16" s="18">
         <f t="shared" si="3"/>
-        <v>5.859375E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C16" s="19">
-        <v>4.8816967</v>
+        <v>36.5714264</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="4"/>
-        <v>-0.84209556481727343</v>
-      </c>
-      <c r="E16" s="11">
+        <v>-0.74999997954852349</v>
+      </c>
+      <c r="E16" s="11" t="e">
         <f t="shared" si="5"/>
-        <v>0.50000000044408921</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
-        <v>-2.7143000025375841E-7</v>
+        <v>2.1714285978191583E-6</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" si="14"/>
-        <v>3.3333333308386652E-8</v>
+        <f t="shared" si="13"/>
+        <v>-2.5333333345164043E-7</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>4.8816967333333334</v>
+        <v>36.571426146666667</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="7"/>
-        <v>-3.0476333368056885E-7</v>
+        <v>2.4247619307971036E-6</v>
       </c>
       <c r="K16" s="27">
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="L16" s="28">
+        <f t="shared" si="14"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M16" s="22">
+        <v>20.433527000000002</v>
+      </c>
+      <c r="N16" s="27">
         <f t="shared" si="9"/>
-        <v>4.8828125E-2</v>
-      </c>
-      <c r="M16" s="22">
-        <v>23.177944199999999</v>
-      </c>
-      <c r="N16" s="27">
+        <v>2.3097396396494712</v>
+      </c>
+      <c r="O16" s="29">
         <f t="shared" si="10"/>
-        <v>7.9554766093617557E-2</v>
-      </c>
-      <c r="O16" s="29">
-        <f t="shared" si="11"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="P16" s="27">
         <f t="shared" si="1"/>
-        <v>2.0642184139774145E-6</v>
+        <v>1.4506699983485305E-6</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" si="15"/>
-        <v>-1.2666666672582021E-7</v>
+        <v>1.2666666672582021E-7</v>
       </c>
       <c r="R16" s="27">
+        <f t="shared" si="11"/>
+        <v>20.433527126666668</v>
+      </c>
+      <c r="S16" s="27">
         <f t="shared" si="12"/>
-        <v>23.177944073333332</v>
-      </c>
-      <c r="S16" s="27">
-        <f t="shared" si="13"/>
-        <v>2.1908850804663871E-6</v>
+        <v>1.3240033318595579E-6</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -7422,69 +7392,37 @@
       </c>
       <c r="B17" s="18">
         <f t="shared" si="3"/>
-        <v>2.9296875E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="C17" s="19">
-        <v>4.8816956999999999</v>
+        <v>36.5714264</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="4"/>
-        <v>-0.37255171129228765</v>
+        <v>1</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="5"/>
-        <v>2.1111111114400662</v>
+        <v>1</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>7.2856999988601956E-7</v>
+        <v>2.1714285978191583E-6</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="14"/>
-        <v>-6.6666666675985195E-8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4.881695633333333</v>
+        <v>36.5714264</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="7"/>
-        <v>7.9523666673964044E-7</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="8"/>
-        <v>1024</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="9"/>
-        <v>2.44140625E-2</v>
+        <v>2.1714285978191583E-6</v>
       </c>
       <c r="M17" s="22">
-        <v>23.177949900000002</v>
-      </c>
-      <c r="N17" s="17">
-        <f t="shared" si="10"/>
-        <v>-0.56775093982592439</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="11"/>
-        <v>0.72857142844817113</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="1"/>
-        <v>-3.6357815886844946E-6</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="15"/>
-        <v>3.8000000017746062E-7</v>
-      </c>
-      <c r="R17" s="17">
-        <f t="shared" si="12"/>
-        <v>23.177950280000001</v>
-      </c>
-      <c r="S17" s="17">
-        <f t="shared" si="13"/>
-        <v>-4.0157815881514125E-6</v>
+        <v>20.433525100000001</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -7494,77 +7432,39 @@
       </c>
       <c r="B18" s="18">
         <f t="shared" si="3"/>
-        <v>1.46484375E-3</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="C18" s="19">
-        <v>4.8816948</v>
+        <v>36.571411099999999</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" ref="D18" si="16">F17/F18</f>
-        <v>0.44736793628762322</v>
+        <v>0.12428454751237879</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" ref="E18" si="17">(C19-C17)/(C19-C18)</f>
-        <v>1.8999999997335464</v>
+        <v>3.013157895831688</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ref="F18" si="18">A$4-C18</f>
-        <v>1.6285699997453662E-6</v>
+        <v>1.7471428598980765E-5</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" ref="G18" si="19">(C18-C17)/(16 - 1)</f>
-        <v>-5.9999999990623115E-8</v>
+        <v>-1.0200000000774404E-6</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" ref="H18" si="20">G18+C18</f>
-        <v>4.8816947400000004</v>
+        <v>36.57141008</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" ref="I18" si="21" xml:space="preserve"> A$4 -H18</f>
-        <v>1.6885699993807179E-6</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="8"/>
-        <v>2048</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="9"/>
-        <v>1.220703125E-2</v>
-      </c>
-      <c r="M18" s="22">
-        <v>23.177928900000001</v>
-      </c>
-      <c r="N18" s="17">
-        <f t="shared" si="10"/>
-        <v>-0.20938354393529815</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.37254901984004662</v>
-      </c>
-      <c r="P18" s="17">
-        <f t="shared" si="1"/>
-        <v>1.7364218411586307E-5</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="15"/>
-        <v>-1.4000000000180534E-6</v>
-      </c>
-      <c r="R18" s="17">
-        <f t="shared" si="12"/>
-        <v>23.177927500000003</v>
-      </c>
-      <c r="S18" s="17">
-        <f t="shared" si="13"/>
-        <v>1.8764218410183275E-5</v>
+        <v>1.8491428598110815E-5</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="C19" s="19">
-        <v>4.8816937999999999</v>
-      </c>
-      <c r="M19" s="22">
-        <v>23.177944199999999</v>
+        <v>36.571403500000002</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7573,57 +7473,56 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="K24" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
+      <c r="K24" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="K25" s="59">
-        <f>20 *SIN(20) + COS(20) - 5* SIN(5) - COS(5)</f>
-        <v>23.177946264218413</v>
-      </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
+      <c r="K25" s="55">
+        <v>20.43352845067</v>
+      </c>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="57"/>
     </row>
     <row r="26" spans="1:19" ht="114">
       <c r="K26" s="1" t="s">
@@ -7682,13 +7581,13 @@
         <v>25</v>
       </c>
       <c r="M28" s="36">
-        <v>-73.784097177477904</v>
+        <v>22.271991401944799</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="38">
-        <f t="shared" ref="P28:P44" si="22">K$4-M28</f>
-        <v>96.962043441696323</v>
+        <f>K$25-M28</f>
+        <v>-1.8384629512747992</v>
       </c>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
@@ -7699,39 +7598,39 @@
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="K29" s="17">
-        <f t="shared" ref="K29:K44" si="23">2*K28</f>
+        <f t="shared" ref="K29:K44" si="22">2*K28</f>
         <v>2</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" ref="L29:L44" si="24">L28/2</f>
+        <f t="shared" ref="L29:L44" si="23">L28/2</f>
         <v>12.5</v>
       </c>
       <c r="M29" s="39">
-        <v>85.683434815196605</v>
+        <v>14.4113555897592</v>
       </c>
       <c r="N29" s="40">
-        <f t="shared" ref="N29:N44" si="25">P28/P29</f>
-        <v>-1.5512564686638051</v>
+        <f t="shared" ref="N29:N44" si="24">P28/P29</f>
+        <v>-0.30528232811250589</v>
       </c>
       <c r="O29" s="41">
-        <f t="shared" ref="O29:O44" si="26">(M30-M28)/(M30-M29)</f>
-        <v>-1.4814195592733215</v>
-      </c>
-      <c r="P29" s="40">
-        <f t="shared" si="22"/>
-        <v>-62.505488550978193</v>
+        <f t="shared" ref="O29:O44" si="25">(M30-M28)/(M30-M29)</f>
+        <v>2.7205446448597265E-2</v>
+      </c>
+      <c r="P29" s="38">
+        <f t="shared" ref="P29:P44" si="26">K$25-M29</f>
+        <v>6.0221728609107998</v>
       </c>
       <c r="Q29" s="40">
         <f>(M29-M28)/(16 - 1)</f>
-        <v>10.631168799511634</v>
+        <v>-0.52404238747903997</v>
       </c>
       <c r="R29" s="40">
         <f t="shared" ref="R29:R44" si="27">Q29+M29</f>
-        <v>96.314603614708233</v>
+        <v>13.88731320228016</v>
       </c>
       <c r="S29" s="40">
         <f t="shared" ref="S29:S44" si="28" xml:space="preserve"> K$4 -R29</f>
-        <v>-73.136657350489827</v>
+        <v>6.5462152483898404</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -7739,39 +7638,39 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="K30" s="17">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="18">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="L30" s="18">
+        <v>6.25</v>
+      </c>
+      <c r="M30" s="39">
+        <v>22.4918241568257</v>
+      </c>
+      <c r="N30" s="40">
         <f t="shared" si="24"/>
-        <v>6.25</v>
-      </c>
-      <c r="M30" s="39">
-        <v>21.418795892396201</v>
-      </c>
-      <c r="N30" s="40">
+        <v>-2.9258054821279655</v>
+      </c>
+      <c r="O30" s="41">
         <f t="shared" si="25"/>
-        <v>-35.531634789260238</v>
-      </c>
-      <c r="O30" s="41">
+        <v>-2.8986831084972975</v>
+      </c>
+      <c r="P30" s="38">
         <f t="shared" si="26"/>
-        <v>-37.108200410739443</v>
-      </c>
-      <c r="P30" s="40">
-        <f t="shared" si="22"/>
-        <v>1.7591503718222121</v>
+        <v>-2.0582957061557003</v>
       </c>
       <c r="Q30" s="40">
         <f t="shared" ref="Q30:Q44" si="29">(M30-M29)/(16 - 1)</f>
-        <v>-4.2843092615200264</v>
+        <v>0.5386979044711</v>
       </c>
       <c r="R30" s="40">
         <f t="shared" si="27"/>
-        <v>17.134486630876175</v>
+        <v>23.0305220612968</v>
       </c>
       <c r="S30" s="40">
         <f t="shared" si="28"/>
-        <v>6.0434596333422377</v>
+        <v>-2.5969936106268001</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -7780,39 +7679,39 @@
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="K31" s="17">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="L31" s="18">
         <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="L31" s="18">
+        <v>3.125</v>
+      </c>
+      <c r="M31" s="39">
+        <v>20.419209291192001</v>
+      </c>
+      <c r="N31" s="40">
         <f t="shared" si="24"/>
-        <v>3.125</v>
-      </c>
-      <c r="M31" s="39">
-        <v>23.105168857536</v>
-      </c>
-      <c r="N31" s="40">
+        <v>-143.74417083057034</v>
+      </c>
+      <c r="O31" s="41">
         <f t="shared" si="25"/>
-        <v>24.171655078324342</v>
-      </c>
-      <c r="O31" s="41">
+        <v>-151.17291143019222</v>
+      </c>
+      <c r="P31" s="38">
         <f t="shared" si="26"/>
-        <v>25.58008031901031</v>
-      </c>
-      <c r="P31" s="40">
-        <f t="shared" si="22"/>
-        <v>7.2777406682412504E-2</v>
+        <v>1.4319159477999222E-2</v>
       </c>
       <c r="Q31" s="40">
         <f t="shared" si="29"/>
-        <v>0.11242486434265331</v>
+        <v>-0.13817432437557997</v>
       </c>
       <c r="R31" s="40">
         <f t="shared" si="27"/>
-        <v>23.217593721878654</v>
+        <v>20.281034966816421</v>
       </c>
       <c r="S31" s="40">
         <f t="shared" si="28"/>
-        <v>-3.9647457660240804E-2</v>
+        <v>0.15249348385357919</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -7821,39 +7720,39 @@
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="K32" s="17">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="L32" s="18">
         <f t="shared" si="23"/>
-        <v>16</v>
-      </c>
-      <c r="L32" s="18">
+        <v>1.5625</v>
+      </c>
+      <c r="M32" s="39">
+        <v>20.432829421385701</v>
+      </c>
+      <c r="N32" s="40">
         <f t="shared" si="24"/>
-        <v>1.5625</v>
-      </c>
-      <c r="M32" s="39">
-        <v>23.173776158376899</v>
-      </c>
-      <c r="N32" s="40">
+        <v>20.484348509616492</v>
+      </c>
+      <c r="O32" s="41">
         <f t="shared" si="25"/>
-        <v>17.452172546296232</v>
-      </c>
-      <c r="O32" s="41">
+        <v>21.705798337915013</v>
+      </c>
+      <c r="P32" s="38">
         <f t="shared" si="26"/>
-        <v>18.524773064203082</v>
-      </c>
-      <c r="P32" s="40">
-        <f t="shared" si="22"/>
-        <v>4.1701058415135606E-3</v>
+        <v>6.9902928429854683E-4</v>
       </c>
       <c r="Q32" s="40">
         <f t="shared" si="29"/>
-        <v>4.5738200560599294E-3</v>
+        <v>9.0800867958004499E-4</v>
       </c>
       <c r="R32" s="40">
         <f t="shared" si="27"/>
-        <v>23.178349978432959</v>
+        <v>20.433737430065282</v>
       </c>
       <c r="S32" s="40">
         <f t="shared" si="28"/>
-        <v>-4.0371421454565848E-4</v>
+        <v>-2.0897939528197185E-4</v>
       </c>
     </row>
     <row r="33" spans="6:19">
@@ -7862,39 +7761,39 @@
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="K33" s="17">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="L33" s="18">
         <f t="shared" si="23"/>
-        <v>32</v>
-      </c>
-      <c r="L33" s="18">
+        <v>0.78125</v>
+      </c>
+      <c r="M33" s="39">
+        <v>20.433487214433399</v>
+      </c>
+      <c r="N33" s="40">
         <f t="shared" si="24"/>
-        <v>0.78125</v>
-      </c>
-      <c r="M33" s="39">
-        <v>23.177691033656</v>
-      </c>
-      <c r="N33" s="40">
+        <v>16.951820580922444</v>
+      </c>
+      <c r="O33" s="41">
         <f t="shared" si="25"/>
-        <v>16.338583444283771</v>
-      </c>
-      <c r="O33" s="41">
+        <v>17.999317230726771</v>
+      </c>
+      <c r="P33" s="38">
         <f t="shared" si="26"/>
-        <v>17.355512133330283</v>
-      </c>
-      <c r="P33" s="40">
-        <f>K$4-M33</f>
-        <v>2.5523056241283371E-4</v>
+        <v>4.1236236601349674E-5</v>
       </c>
       <c r="Q33" s="40">
         <f t="shared" si="29"/>
-        <v>2.6099168527338179E-4</v>
+        <v>4.3852869846479811E-5</v>
       </c>
       <c r="R33" s="40">
         <f t="shared" si="27"/>
-        <v>23.177952025341273</v>
+        <v>20.433531067303246</v>
       </c>
       <c r="S33" s="40">
         <f t="shared" si="28"/>
-        <v>-5.7611228605480846E-6</v>
+        <v>-2.6166332460775266E-6</v>
       </c>
     </row>
     <row r="34" spans="6:19">
@@ -7903,39 +7802,39 @@
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="K34" s="17">
+        <f t="shared" si="22"/>
+        <v>64</v>
+      </c>
+      <c r="L34" s="18">
         <f t="shared" si="23"/>
-        <v>64</v>
-      </c>
-      <c r="L34" s="18">
+        <v>0.390625</v>
+      </c>
+      <c r="M34" s="39">
+        <v>20.433525909696201</v>
+      </c>
+      <c r="N34" s="40">
         <f t="shared" si="24"/>
-        <v>0.390625</v>
-      </c>
-      <c r="M34" s="39">
-        <v>23.177930394872401</v>
-      </c>
-      <c r="N34" s="40">
+        <v>16.22851704003283</v>
+      </c>
+      <c r="O34" s="41">
         <f t="shared" si="25"/>
-        <v>16.083243898513132</v>
-      </c>
-      <c r="O34" s="41">
+        <v>17.239937478552633</v>
+      </c>
+      <c r="P34" s="38">
         <f t="shared" si="26"/>
-        <v>17.087406137916176</v>
-      </c>
-      <c r="P34" s="40">
-        <f t="shared" si="22"/>
-        <v>1.5869346011498919E-5</v>
+        <v>2.5409737993697945E-6</v>
       </c>
       <c r="Q34" s="40">
         <f t="shared" si="29"/>
-        <v>1.5957414426755652E-5</v>
+        <v>2.5796841867986585E-6</v>
       </c>
       <c r="R34" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946352286828</v>
+        <v>20.433528489380386</v>
       </c>
       <c r="S34" s="40">
         <f t="shared" si="28"/>
-        <v>-8.8068414783037952E-8</v>
+        <v>-3.8710386007778652E-8</v>
       </c>
     </row>
     <row r="35" spans="6:19">
@@ -7944,39 +7843,39 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="K35" s="20">
+        <f t="shared" si="22"/>
+        <v>128</v>
+      </c>
+      <c r="L35" s="21">
         <f t="shared" si="23"/>
-        <v>128</v>
-      </c>
-      <c r="L35" s="21">
+        <v>0.1953125</v>
+      </c>
+      <c r="M35" s="39">
+        <v>20.4335282924186</v>
+      </c>
+      <c r="N35" s="38">
         <f t="shared" si="24"/>
-        <v>0.1953125</v>
-      </c>
-      <c r="M35" s="39">
-        <v>23.177945273667302</v>
-      </c>
-      <c r="N35" s="38">
+        <v>16.056564471170393</v>
+      </c>
+      <c r="O35" s="42">
         <f t="shared" si="25"/>
-        <v>16.020724049014074</v>
-      </c>
-      <c r="O35" s="42">
+        <v>17.059392456919191</v>
+      </c>
+      <c r="P35" s="38">
         <f t="shared" si="26"/>
-        <v>17.021761762682821</v>
-      </c>
-      <c r="P35" s="38">
-        <f t="shared" si="22"/>
-        <v>9.9055111135726293E-7</v>
+        <v>1.5825139954017686E-7</v>
       </c>
       <c r="Q35" s="38">
         <f t="shared" si="29"/>
-        <v>9.9191966000944372E-7</v>
+        <v>1.5884815998864117E-7</v>
       </c>
       <c r="R35" s="38">
         <f t="shared" si="27"/>
-        <v>23.177946265586961</v>
+        <v>20.43352845126676</v>
       </c>
       <c r="S35" s="38">
         <f t="shared" si="28"/>
-        <v>-1.3685479416380986E-9</v>
+        <v>-5.9675997476915654E-10</v>
       </c>
     </row>
     <row r="36" spans="6:19">
@@ -7985,39 +7884,39 @@
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="K36" s="17">
+        <f t="shared" si="22"/>
+        <v>256</v>
+      </c>
+      <c r="L36" s="18">
         <f t="shared" si="23"/>
-        <v>256</v>
-      </c>
-      <c r="L36" s="18">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="M36" s="39">
+        <v>20.433528440787999</v>
+      </c>
+      <c r="N36" s="40">
         <f t="shared" si="24"/>
-        <v>9.765625E-2</v>
-      </c>
-      <c r="M36" s="39">
-        <v>23.177946202328901</v>
-      </c>
-      <c r="N36" s="40">
+        <v>16.014104796774156</v>
+      </c>
+      <c r="O36" s="40">
         <f t="shared" si="25"/>
-        <v>16.005152996647769</v>
-      </c>
-      <c r="O36" s="40">
+        <v>17.014830168058364</v>
+      </c>
+      <c r="P36" s="38">
         <f t="shared" si="26"/>
-        <v>17.005419291221905</v>
-      </c>
-      <c r="P36" s="40">
-        <f t="shared" si="22"/>
-        <v>6.1889512181778628E-8</v>
+        <v>9.8820009952760302E-9</v>
       </c>
       <c r="Q36" s="40">
         <f t="shared" si="29"/>
-        <v>6.1910773278365614E-8</v>
+        <v>9.8912932363267217E-9</v>
       </c>
       <c r="R36" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946264239672</v>
+        <v>20.433528450679294</v>
       </c>
       <c r="S36" s="40">
         <f t="shared" si="28"/>
-        <v>-2.1259438653942198E-11</v>
+        <v>-9.2938989837421104E-12</v>
       </c>
     </row>
     <row r="37" spans="6:19">
@@ -8026,39 +7925,39 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="K37" s="27">
+        <f t="shared" si="22"/>
+        <v>512</v>
+      </c>
+      <c r="L37" s="28">
         <f t="shared" si="23"/>
-        <v>512</v>
-      </c>
-      <c r="L37" s="28">
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="M37" s="39">
+        <v>20.433528450052499</v>
+      </c>
+      <c r="N37" s="43">
         <f t="shared" si="24"/>
-        <v>4.8828125E-2</v>
-      </c>
-      <c r="M37" s="39">
-        <v>23.177946260350598</v>
-      </c>
-      <c r="N37" s="43">
+        <v>16.00322189044422</v>
+      </c>
+      <c r="O37" s="44">
         <f t="shared" si="25"/>
-        <v>16.001158269594825</v>
-      </c>
-      <c r="O37" s="44">
+        <v>17.003614694438649</v>
+      </c>
+      <c r="P37" s="38">
         <f t="shared" si="26"/>
-        <v>17.001559822423232</v>
-      </c>
-      <c r="P37" s="43">
-        <f t="shared" si="22"/>
-        <v>3.8678145131143538E-9</v>
+        <v>6.1750071722599387E-10</v>
       </c>
       <c r="Q37" s="43">
         <f t="shared" si="29"/>
-        <v>3.8681131779109515E-9</v>
+        <v>6.1763335187000245E-10</v>
       </c>
       <c r="R37" s="43">
         <f t="shared" si="27"/>
-        <v>23.177946264218711</v>
+        <v>20.433528450670131</v>
       </c>
       <c r="S37" s="43">
         <f t="shared" si="28"/>
-        <v>-2.9842794901924208E-13</v>
+        <v>-1.3145040611561853E-13</v>
       </c>
     </row>
     <row r="38" spans="6:19">
@@ -8067,39 +7966,39 @@
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="K38" s="17">
+        <f t="shared" si="22"/>
+        <v>1024</v>
+      </c>
+      <c r="L38" s="18">
         <f t="shared" si="23"/>
-        <v>1024</v>
-      </c>
-      <c r="L38" s="18">
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="M38" s="39">
+        <v>20.4335284506314</v>
+      </c>
+      <c r="N38" s="40">
         <f t="shared" si="24"/>
-        <v>2.44140625E-2</v>
-      </c>
-      <c r="M38" s="39">
-        <v>23.177946263976601</v>
-      </c>
-      <c r="N38" s="40">
+        <v>15.997330878969168</v>
+      </c>
+      <c r="O38" s="41">
         <f t="shared" si="25"/>
-        <v>15.995136929948284</v>
-      </c>
-      <c r="O38" s="41">
+        <v>16.992344685445087</v>
+      </c>
+      <c r="P38" s="38">
         <f t="shared" si="26"/>
-        <v>17.001834373334169</v>
-      </c>
-      <c r="P38" s="40">
-        <f t="shared" si="22"/>
-        <v>2.418119038338773E-10</v>
+        <v>3.8600234120167443E-11</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="29"/>
-        <v>2.417335072853651E-10</v>
+        <v>3.8593365540388431E-11</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946264218335</v>
+        <v>20.433528450669993</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="28"/>
-        <v>7.815970093361102E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="6:19">
@@ -8108,39 +8007,39 @@
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
       <c r="K39" s="17">
+        <f t="shared" si="22"/>
+        <v>2048</v>
+      </c>
+      <c r="L39" s="18">
         <f t="shared" si="23"/>
-        <v>2048</v>
-      </c>
-      <c r="L39" s="18">
+        <v>1.220703125E-2</v>
+      </c>
+      <c r="M39" s="39">
+        <v>20.433528450667598</v>
+      </c>
+      <c r="N39" s="40">
         <f t="shared" si="24"/>
-        <v>1.220703125E-2</v>
-      </c>
-      <c r="M39" s="39">
-        <v>23.1779462642032</v>
-      </c>
-      <c r="N39" s="40">
+        <v>16.072485207100591</v>
+      </c>
+      <c r="O39" s="41">
         <f t="shared" si="25"/>
-        <v>15.895375992526857</v>
-      </c>
-      <c r="O39" s="41">
+        <v>17.433870967741935</v>
+      </c>
+      <c r="P39" s="38">
         <f t="shared" si="26"/>
-        <v>16.957468101075808</v>
-      </c>
-      <c r="P39" s="40">
-        <f t="shared" si="22"/>
-        <v>1.5212719972623745E-11</v>
+        <v>2.4016344468691386E-12</v>
       </c>
       <c r="Q39" s="40">
         <f t="shared" si="29"/>
-        <v>1.5106612257416903E-11</v>
+        <v>2.4132399782198869E-12</v>
       </c>
       <c r="R39" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946264218306</v>
+        <v>20.433528450670011</v>
       </c>
       <c r="S39" s="40">
         <f t="shared" si="28"/>
-        <v>1.0658141036401503E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="6:19">
@@ -8149,39 +8048,39 @@
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="K40" s="17">
+        <f t="shared" si="22"/>
+        <v>4096</v>
+      </c>
+      <c r="L40" s="18">
         <f t="shared" si="23"/>
-        <v>4096</v>
-      </c>
-      <c r="L40" s="18">
+        <v>6.103515625E-3</v>
+      </c>
+      <c r="M40" s="39">
+        <v>20.433528450669801</v>
+      </c>
+      <c r="N40" s="40">
         <f t="shared" si="24"/>
-        <v>6.103515625E-3</v>
-      </c>
-      <c r="M40" s="39">
-        <v>23.1779462642174</v>
-      </c>
-      <c r="N40" s="40">
+        <v>12.071428571428571</v>
+      </c>
+      <c r="O40" s="41">
         <f t="shared" si="25"/>
-        <v>15.024561403508772</v>
-      </c>
-      <c r="O40" s="41">
+        <v>12.071428571428571</v>
+      </c>
+      <c r="P40" s="38">
         <f t="shared" si="26"/>
-        <v>16.798418972332016</v>
-      </c>
-      <c r="P40" s="40">
-        <f t="shared" si="22"/>
-        <v>1.0125233984581428E-12</v>
+        <v>1.9895196601282805E-13</v>
       </c>
       <c r="Q40" s="40">
         <f t="shared" si="29"/>
-        <v>9.4667977161104005E-13</v>
+        <v>1.4684549872375405E-13</v>
       </c>
       <c r="R40" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946264218345</v>
+        <v>20.433528450669947</v>
       </c>
       <c r="S40" s="40">
         <f t="shared" si="28"/>
-        <v>6.7501559897209518E-14</v>
+        <v>5.3290705182007514E-14</v>
       </c>
     </row>
     <row r="41" spans="6:19">
@@ -8189,40 +8088,40 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="K41" s="17">
+      <c r="K41" s="31">
+        <f t="shared" si="22"/>
+        <v>8192</v>
+      </c>
+      <c r="L41" s="32">
         <f t="shared" si="23"/>
-        <v>8192</v>
-      </c>
-      <c r="L41" s="18">
+        <v>3.0517578125E-3</v>
+      </c>
+      <c r="M41" s="45">
+        <v>20.43352845067</v>
+      </c>
+      <c r="N41" s="46" t="e">
         <f t="shared" si="24"/>
-        <v>3.0517578125E-3</v>
-      </c>
-      <c r="M41" s="39">
-        <v>23.177946264218299</v>
-      </c>
-      <c r="N41" s="40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="46" t="e">
         <f t="shared" si="25"/>
-        <v>8.90625</v>
-      </c>
-      <c r="O41" s="41">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="65">
         <f t="shared" si="26"/>
-        <v>10.035714285714286</v>
-      </c>
-      <c r="P41" s="40">
-        <f t="shared" si="22"/>
-        <v>1.1368683772161603E-13</v>
-      </c>
-      <c r="Q41" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="46">
         <f t="shared" si="29"/>
-        <v>5.9922437382435117E-14</v>
-      </c>
-      <c r="R41" s="40">
+        <v>1.3263464400855204E-14</v>
+      </c>
+      <c r="R41" s="46">
         <f t="shared" si="27"/>
-        <v>23.17794626421836</v>
-      </c>
-      <c r="S41" s="40">
+        <v>20.433528450670014</v>
+      </c>
+      <c r="S41" s="46">
         <f t="shared" si="28"/>
-        <v>5.3290705182007514E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="6:19">
@@ -8230,38 +8129,38 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
-      <c r="K42" s="31">
+      <c r="K42" s="61">
+        <f t="shared" si="22"/>
+        <v>16384</v>
+      </c>
+      <c r="L42" s="62">
         <f t="shared" si="23"/>
-        <v>16384</v>
-      </c>
-      <c r="L42" s="32">
+        <v>1.52587890625E-3</v>
+      </c>
+      <c r="M42" s="64">
+        <v>20.43352845067</v>
+      </c>
+      <c r="N42" s="63" t="e">
         <f t="shared" si="24"/>
-        <v>1.52587890625E-3</v>
-      </c>
-      <c r="M42" s="45">
-        <v>23.177946264218399</v>
-      </c>
-      <c r="N42" s="46" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="63">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="46" t="e">
+        <v>1</v>
+      </c>
+      <c r="P42" s="38">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="46">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="63">
         <f t="shared" si="29"/>
-        <v>6.6317322004276018E-15</v>
-      </c>
-      <c r="R42" s="46">
+        <v>0</v>
+      </c>
+      <c r="R42" s="63">
         <f t="shared" si="27"/>
-        <v>23.177946264218406</v>
-      </c>
-      <c r="S42" s="46">
+        <v>20.43352845067</v>
+      </c>
+      <c r="S42" s="63">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -8272,39 +8171,39 @@
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="K43" s="17">
+        <f t="shared" si="22"/>
+        <v>32768</v>
+      </c>
+      <c r="L43" s="18">
         <f t="shared" si="23"/>
-        <v>32768</v>
-      </c>
-      <c r="L43" s="18">
+        <v>7.62939453125E-4</v>
+      </c>
+      <c r="M43" s="39">
+        <v>20.4335284506699</v>
+      </c>
+      <c r="N43" s="40">
         <f t="shared" si="24"/>
-        <v>7.62939453125E-4</v>
-      </c>
-      <c r="M43" s="39">
-        <v>23.177946264218399</v>
-      </c>
-      <c r="N43" s="40" t="e">
+        <v>0</v>
+      </c>
+      <c r="O43" s="41">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="41">
+        <v>0</v>
+      </c>
+      <c r="P43" s="38">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="P43" s="40">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>9.9475983006414026E-14</v>
       </c>
       <c r="Q43" s="40">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-6.6317322004276018E-15</v>
       </c>
       <c r="R43" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946264218399</v>
+        <v>20.433528450669893</v>
       </c>
       <c r="S43" s="40">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.0658141036401503E-13</v>
       </c>
     </row>
     <row r="44" spans="6:19">
@@ -8313,44 +8212,44 @@
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="K44" s="17">
+        <f t="shared" si="22"/>
+        <v>65536</v>
+      </c>
+      <c r="L44" s="18">
         <f t="shared" si="23"/>
-        <v>65536</v>
-      </c>
-      <c r="L44" s="18">
+        <v>3.814697265625E-4</v>
+      </c>
+      <c r="M44" s="39">
+        <v>20.43352845067</v>
+      </c>
+      <c r="N44" s="40" t="e">
         <f t="shared" si="24"/>
-        <v>3.814697265625E-4</v>
-      </c>
-      <c r="M44" s="39">
-        <v>23.177946264218299</v>
-      </c>
-      <c r="N44" s="40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="41" t="e">
         <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" s="40">
+        <f t="shared" si="26"/>
         <v>0</v>
-      </c>
-      <c r="O44" s="41" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="40">
-        <f t="shared" si="22"/>
-        <v>1.1368683772161603E-13</v>
       </c>
       <c r="Q44" s="40">
         <f t="shared" si="29"/>
-        <v>-6.6317322004276018E-15</v>
+        <v>6.6317322004276018E-15</v>
       </c>
       <c r="R44" s="40">
         <f t="shared" si="27"/>
-        <v>23.177946264218292</v>
+        <v>20.433528450670007</v>
       </c>
       <c r="S44" s="40">
         <f t="shared" si="28"/>
-        <v>1.2079226507921703E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:19">
       <c r="M45" s="39">
-        <v>23.177946264218299</v>
+        <v>20.43352845067</v>
       </c>
     </row>
   </sheetData>
